--- a/src/test/java/com/companyname/projectname/Data/TestSuite1Data.xlsx
+++ b/src/test/java/com/companyname/projectname/Data/TestSuite1Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsingh5/Documents/video/KeywordDriverFramework/src/test/java/com/companyname/projectname/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsingh5/git/keywordDrivenFramework/src/test/java/com/companyname/projectname/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="TC03" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>password</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>waitfor</t>
+  </si>
+  <si>
+    <t>9999999999</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>SucessMsg</t>
+  </si>
+  <si>
+    <t>Welcome to your account. Here you can manage all of your personal information and orders.</t>
   </si>
 </sst>
 </file>
@@ -197,10 +209,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -503,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -521,9 +533,10 @@
     <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="70.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -569,9 +582,12 @@
       <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
@@ -589,8 +605,8 @@
       <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6">
-        <v>2007</v>
+      <c r="G2" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -610,11 +626,14 @@
       <c r="M2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O2">
-        <v>9999999999</v>
+      <c r="O2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -629,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -639,18 +658,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
